--- a/甲乙班(Exp)後測成績 with review.xlsx
+++ b/甲乙班(Exp)後測成績 with review.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE00EC-7190-43CB-ACEA-A7107A8C369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90FF651-C022-45A7-ACBE-544AFB3EAA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{102ADA0A-34F5-4B75-8551-9BC252EEC4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -517,7 +514,7 @@
               <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Post Test Passed</a:t>
+              <a:t>Post Test Passing</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="zh-TW" sz="1800" b="0" i="0" baseline="0">
@@ -1058,7 +1055,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2821,13 +2818,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:rowOff>204786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2854,16 +2851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>651508</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>861058</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2889,59 +2886,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="54">
-          <cell r="J54" t="str">
-            <v>conflict solve</v>
-          </cell>
-          <cell r="K54" t="str">
-            <v>new branch and commit</v>
-          </cell>
-          <cell r="L54" t="str">
-            <v>clone, commit and push</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>Experiment Group</v>
-          </cell>
-          <cell r="J55">
-            <v>43.137254901960787</v>
-          </cell>
-          <cell r="K55">
-            <v>63.725490196078432</v>
-          </cell>
-          <cell r="L55">
-            <v>72.549019607843135</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>Control Group</v>
-          </cell>
-          <cell r="J56">
-            <v>33</v>
-          </cell>
-          <cell r="K56">
-            <v>50</v>
-          </cell>
-          <cell r="L56">
-            <v>64</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3243,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0A7C0-886F-4307-A94D-AE9904759072}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3314,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="7">
-        <f>(D2*2+G2)/3</f>
+        <f t="shared" ref="H2:H25" si="0">(D2*2+G2)/3</f>
         <v>0</v>
       </c>
       <c r="I2" s="8"/>
@@ -3351,7 +3295,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="7">
-        <f>(D3*2+G3)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I3" s="8"/>
@@ -3388,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="7">
-        <f>(D4*2+G4)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="8"/>
@@ -3425,7 +3369,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <f>(D5*2+G5)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I5" s="8"/>
@@ -3462,7 +3406,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="7">
-        <f>(D6*2+G6)/3</f>
+        <f t="shared" si="0"/>
         <v>55.666666666666664</v>
       </c>
       <c r="I6" s="8"/>
@@ -3499,7 +3443,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="7">
-        <f>(D7*2+G7)/3</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I7" s="8"/>
@@ -3536,7 +3480,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="7">
-        <f>(D8*2+G8)/3</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I8" s="8"/>
@@ -3573,7 +3517,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="7">
-        <f>(D9*2+G9)/3</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I9" s="8"/>
@@ -3610,7 +3554,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="7">
-        <f>(D10*2+G10)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I10" s="8"/>
@@ -3647,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7">
-        <f>(D11*2+G11)/3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="8"/>
@@ -3684,7 +3628,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="7">
-        <f>(D12*2+G12)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I12" s="8"/>
@@ -3721,7 +3665,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="7">
-        <f>(D13*2+G13)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I13" s="8"/>
@@ -3758,7 +3702,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="7">
-        <f>(D14*2+G14)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I14" s="8"/>
@@ -3795,7 +3739,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <f>(D15*2+G15)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I15" s="8"/>
@@ -3832,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f>(D16*2+G16)/3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="I16" s="8"/>
@@ -3869,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17*2+G17)/3</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="I17" s="8"/>
@@ -3906,7 +3850,7 @@
         <v>100</v>
       </c>
       <c r="H18" s="7">
-        <f>(D18*2+G18)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I18" s="8"/>
@@ -3943,7 +3887,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="7">
-        <f>(D19*2+G19)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I19" s="8"/>
@@ -3980,7 +3924,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="7">
-        <f>(D20*2+G20)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I20" s="8"/>
@@ -4017,7 +3961,7 @@
         <v>100</v>
       </c>
       <c r="H21" s="7">
-        <f>(D21*2+G21)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I21" s="8"/>
@@ -4054,7 +3998,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="7">
-        <f>(D22*2+G22)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I22" s="8"/>
@@ -4091,7 +4035,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="7">
-        <f>(D23*2+G23)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I23" s="8"/>
@@ -4128,7 +4072,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="7">
-        <f>(D24*2+G24)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I24" s="8"/>
@@ -4165,7 +4109,7 @@
         <v>100</v>
       </c>
       <c r="H25" s="7">
-        <f>(D25*2+G25)/3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I25" s="8"/>
